--- a/_6_Queries_&_Results/Exp2/CozoPG_vs_CozoRPG_R5.xlsx
+++ b/_6_Queries_&_Results/Exp2/CozoPG_vs_CozoRPG_R5.xlsx
@@ -5,22 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selsebil\Downloads\EXP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selsebil\Desktop\Thèse\EXPERIENCES\EXP2 - UPDATED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A00A19-DD25-4165-BB83-2568404EEFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94732C6B-D6CF-48ED-B7F4-CC862219B60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="732" windowWidth="23028" windowHeight="13668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>DS_size</t>
   </si>
@@ -29,15 +34,6 @@
   </si>
   <si>
     <t>CozoRPG</t>
-  </si>
-  <si>
-    <t>100K_500K</t>
-  </si>
-  <si>
-    <t>200K_1M</t>
-  </si>
-  <si>
-    <t>300K_1M500K</t>
   </si>
   <si>
     <t>400K_2M</t>
@@ -520,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -547,10 +543,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>955</v>
+        <v>2133</v>
       </c>
       <c r="C2">
-        <v>1265</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -558,10 +554,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1425</v>
+        <v>2903</v>
       </c>
       <c r="C3">
-        <v>1760</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -569,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2059</v>
+        <v>3692</v>
       </c>
       <c r="C4">
-        <v>2597</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -580,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2133</v>
+        <v>4492</v>
       </c>
       <c r="C5">
-        <v>2602</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -591,10 +587,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2903</v>
+        <v>5214</v>
       </c>
       <c r="C6">
-        <v>3609</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -602,10 +598,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3692</v>
+        <v>5998</v>
       </c>
       <c r="C7">
-        <v>4739</v>
+        <v>6448</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -613,10 +609,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>4492</v>
+        <v>6884</v>
       </c>
       <c r="C8">
-        <v>5023</v>
+        <v>7334</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -624,10 +620,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>5214</v>
+        <v>7508</v>
       </c>
       <c r="C9">
-        <v>5967</v>
+        <v>7958</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -635,10 +631,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>5998</v>
+        <v>8750</v>
       </c>
       <c r="C10">
-        <v>6711</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -646,10 +642,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>6884</v>
+        <v>9355</v>
       </c>
       <c r="C11">
-        <v>7555</v>
+        <v>9805</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -657,10 +653,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>7508</v>
+        <v>10320</v>
       </c>
       <c r="C12">
-        <v>7899</v>
+        <v>10770</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -668,10 +664,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>8750</v>
+        <v>10960</v>
       </c>
       <c r="C13">
-        <v>9399</v>
+        <v>11410</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -679,10 +675,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>9355</v>
+        <v>11620</v>
       </c>
       <c r="C14">
-        <v>9973</v>
+        <v>12070</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -690,10 +686,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>10320</v>
+        <v>11988</v>
       </c>
       <c r="C15">
-        <v>10760</v>
+        <v>12438</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -701,10 +697,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>10960</v>
+        <v>12766</v>
       </c>
       <c r="C16">
-        <v>11450</v>
+        <v>13216</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -712,10 +708,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>11620</v>
+        <v>13712</v>
       </c>
       <c r="C17">
-        <v>12183</v>
+        <v>14162</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -723,10 +719,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>11988</v>
+        <v>15120</v>
       </c>
       <c r="C18">
-        <v>12704</v>
+        <v>15570</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -734,10 +730,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>12766</v>
+        <v>15720</v>
       </c>
       <c r="C19">
-        <v>13332</v>
+        <v>16170</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -745,10 +741,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>13712</v>
+        <v>16992</v>
       </c>
       <c r="C20">
-        <v>14230</v>
+        <v>17442</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -756,10 +752,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>15120</v>
+        <v>17764</v>
       </c>
       <c r="C21">
-        <v>15591</v>
+        <v>18214</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -767,10 +763,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>15720</v>
+        <v>18716</v>
       </c>
       <c r="C22">
-        <v>15981</v>
+        <v>19166</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -778,10 +774,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>16992</v>
+        <v>21255</v>
       </c>
       <c r="C23">
-        <v>17565</v>
+        <v>21705</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -789,10 +785,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>17764</v>
+        <v>22132</v>
       </c>
       <c r="C24">
-        <v>18318</v>
+        <v>22582</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -800,10 +796,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>18716</v>
+        <v>23105</v>
       </c>
       <c r="C25">
-        <v>19429</v>
+        <v>23555</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -811,10 +807,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>21255</v>
+        <v>24528</v>
       </c>
       <c r="C26">
-        <v>22430</v>
+        <v>24978</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -822,10 +818,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>22132</v>
+        <v>25496</v>
       </c>
       <c r="C27">
-        <v>22820</v>
+        <v>25946</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -833,43 +829,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>23105</v>
+        <v>27180</v>
       </c>
       <c r="C28">
-        <v>23996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>24528</v>
-      </c>
-      <c r="C29">
-        <v>25530</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>25496</v>
-      </c>
-      <c r="C30">
-        <v>25954</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>27180</v>
-      </c>
-      <c r="C31">
-        <v>27701</v>
+        <v>27630</v>
       </c>
     </row>
   </sheetData>
